--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/PUCP/PreGrado/estadistica_anapol2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n422\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="governance16" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +34,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="data20161" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/JoseManuel/Documents/GITHUBs/PUCP/PreGrado/estadistica_anapol2/data2016.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/JoseManuel/Documents/GITHUBs/PUCP/PreGrado/estadistica_anapol2/data2016.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -49,7 +49,7 @@
     </textPr>
   </connection>
   <connection id="2" name="data2018" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/JoseManuel/Documents/GITHUBs/PUCP/PreGrado/estadistica_anapol2/data2018.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/JoseManuel/Documents/GITHUBs/PUCP/PreGrado/estadistica_anapol2/data2018.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1371,6 +1371,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1653,17 +1656,17 @@
       <selection activeCell="J1" sqref="J1:J203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>1.2858484983444201</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>1.2287786006927399</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>-1.52635169029235</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>-1.43970346450805</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>-0.40526595711708002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>1.17170858383178</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>-0.28404125571250899</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>-0.57195448875427202</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>0.69374853372573797</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>1.8161151409149101</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>1.5485370159149101</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>-0.83850389719009299</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>-1.2457022666931099</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>1.63870513439178</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>-0.51343780755996704</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>-0.14807862043380701</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>-0.85708969831466597</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>-0.16844329237937899</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>-1.5862377360463101E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>1.10805356502532</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>-0.45645621418952897</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>-0.25707009434700001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>-0.242828339338302</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>-0.72439348697662298</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>-0.38144040107727001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>1.25736439228057</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>0.56841975450515703</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>1.12650382518768</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2443,7 +2446,7 @@
         <v>-1.7148063182830799</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>0.92988622188568104</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>-1.28000152111053</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>1.98990094661712</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>1.9883574247360201</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>1.14005374908447</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>-0.25405940413474998</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -2625,7 +2628,7 @@
         <v>-0.53006559610366799</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>-1.15444195270538</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>-1.18697834014892</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>-0.32425165176391602</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>-0.66586816310882502</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -2755,7 +2758,7 @@
         <v>0.86890560388564997</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>0.744237780570983</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>0.16913871467113401</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>0.52899301052093495</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>0.826646327972412</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>0.53675723075866599</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -2911,7 +2914,7 @@
         <v>1.84341776371002</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2937,7 +2940,7 @@
         <v>-0.65348023176193204</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>0.62496709823608299</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>2.2305908203125</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>-0.75637614727020197</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>-0.677892506122589</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>-0.68032634258270197</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>-0.64472448825836104</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>-1.3067097663879299</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>0.515630543231964</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>1.27234530448913</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>-0.41703677177429099</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>2.2395277023315399</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>0.130291953682899</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>128</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>1.4001430273055999</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>130</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>0.65459519624710005</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>132</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>-0.75331127643585205</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>1.89897668361663</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -3379,7 +3382,7 @@
         <v>0.68535339832305897</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>-0.149014636874198</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>-0.918959081172943</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>-0.81204479932785001</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>-1.5522993803024201</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>-1.8058824539184499</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>148</v>
       </c>
@@ -3535,7 +3538,7 @@
         <v>-9.2085711658000904E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>150</v>
       </c>
@@ -3561,7 +3564,7 @@
         <v>0.56389349699020297</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -3587,7 +3590,7 @@
         <v>1.1670714616775499</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>154</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>-0.73982125520706099</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>0.97504401206970204</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>-0.32455241680145203</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v>1.5616865158080999</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>162</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>-0.65777450799942005</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>164</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>0.20333077013492501</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>-1.3316276073455799</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>168</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>9.7243495285511003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>170</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>-0.399326682090759</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>172</v>
       </c>
@@ -3847,7 +3850,7 @@
         <v>-0.28225764632224998</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>174</v>
       </c>
@@ -3873,7 +3876,7 @@
         <v>1.58335638046264</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>176</v>
       </c>
@@ -3899,7 +3902,7 @@
         <v>-0.71138840913772505</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>178</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>-1.3869652748107899</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>180</v>
       </c>
@@ -3951,7 +3954,7 @@
         <v>1.9494936466217001</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>182</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>1.1868088245391799</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>8.4406800568103693E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>186</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>-0.15906159579753801</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>188</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>0.26529330015182401</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -4081,7 +4084,7 @@
         <v>1.52495777606964</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>192</v>
       </c>
@@ -4107,7 +4110,7 @@
         <v>-0.816717088222503</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>194</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>-0.89278984069824197</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>196</v>
       </c>
@@ -4159,7 +4162,7 @@
         <v>-1.07930672168731</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>198</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>-1.2729175090789699</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>200</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>0.249524310231208</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>202</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>0.513921618461608</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>204</v>
       </c>
@@ -4263,7 +4266,7 @@
         <v>0.45691260695457397</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>206</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>-0.26820740103721602</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>208</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>-0.95244687795639005</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>210</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>-0.96520113945007302</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>212</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>-0.72161543369293202</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>214</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>-1.62668585777282</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>216</v>
       </c>
@@ -4419,7 +4422,7 @@
         <v>0.63055753707885698</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>218</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>2.0427041053771902</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>220</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>-0.31072944402694702</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>222</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>-2.25261617451906E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>224</v>
       </c>
@@ -4523,7 +4526,7 @@
         <v>0.71383607387542702</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>226</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>2.0968537330627401</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>228</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>0.43113830685615501</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>230</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>-0.41474413871765098</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>232</v>
       </c>
@@ -4627,7 +4630,7 @@
         <v>0.84618538618087702</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>234</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>-0.129715010523796</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>236</v>
       </c>
@@ -4679,7 +4682,7 @@
         <v>-0.95168936252593905</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>238</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>-0.90730285644531194</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>240</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>-0.666198790073394</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>-0.71960693597793501</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>244</v>
       </c>
@@ -4783,7 +4786,7 @@
         <v>-5.1144022494554499E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>246</v>
       </c>
@@ -4809,7 +4812,7 @@
         <v>-0.28527933359146102</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>248</v>
       </c>
@@ -4835,7 +4838,7 @@
         <v>-0.65479850769042902</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>250</v>
       </c>
@@ -4861,7 +4864,7 @@
         <v>0.72124487161636297</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>252</v>
       </c>
@@ -4887,7 +4890,7 @@
         <v>-0.62113898992538397</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>254</v>
       </c>
@@ -4913,7 +4916,7 @@
         <v>-0.48720297217369002</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>256</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>-9.9220901727676294E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>258</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>-0.87500691413879295</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>260</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>-0.73923468589782704</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>262</v>
       </c>
@@ -5017,7 +5020,7 @@
         <v>0.203369081020355</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>264</v>
       </c>
@@ -5043,7 +5046,7 @@
         <v>-0.75668466091155995</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>266</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>9.6050985157489693E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>268</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>0.33282545208930903</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>270</v>
       </c>
@@ -5121,7 +5124,7 @@
         <v>-0.64420413970947199</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>272</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>-1.0250064134597701</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>274</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>-0.87145513296127297</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>276</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>1.9131114482879601</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>278</v>
       </c>
@@ -5225,7 +5228,7 @@
         <v>2.19658255577087</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>280</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>-0.79991102218627896</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>282</v>
       </c>
@@ -5277,7 +5280,7 @@
         <v>-0.42814397811889598</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>284</v>
       </c>
@@ -5303,7 +5306,7 @@
         <v>2.28394222259521</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>286</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>0.33948376774787897</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>288</v>
       </c>
@@ -5355,7 +5358,7 @@
         <v>-0.87546485662460305</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>290</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>-0.49473658204078602</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>292</v>
       </c>
@@ -5407,7 +5410,7 @@
         <v>-0.42814397811889598</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>294</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>-0.36737826466560303</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>296</v>
       </c>
@@ -5459,7 +5462,7 @@
         <v>-0.48824590444564803</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>298</v>
       </c>
@@ -5485,7 +5488,7 @@
         <v>-0.933385670185089</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>300</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>0.73910516500473</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>302</v>
       </c>
@@ -5537,7 +5540,7 @@
         <v>3.5049773752689299E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>304</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>-1.4398788213729801</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>306</v>
       </c>
@@ -5589,7 +5592,7 @@
         <v>0.92550688982009799</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>308</v>
       </c>
@@ -5615,7 +5618,7 @@
         <v>-0.709677934646606</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>310</v>
       </c>
@@ -5641,7 +5644,7 @@
         <v>0.90077853202819802</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>312</v>
       </c>
@@ -5667,7 +5670,7 @@
         <v>-1.87148544937372E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>314</v>
       </c>
@@ -5693,7 +5696,7 @@
         <v>-0.82268798351287797</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>316</v>
       </c>
@@ -5719,7 +5722,7 @@
         <v>0.64412164688110296</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>318</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>0.27637678384780801</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>320</v>
       </c>
@@ -5771,7 +5774,7 @@
         <v>0.23090437054634</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>322</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>-1.5256652832031199</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>324</v>
       </c>
@@ -5823,7 +5826,7 @@
         <v>-3.2349466891901102E-6</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>326</v>
       </c>
@@ -5849,7 +5852,7 @@
         <v>2.08810186386108</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>328</v>
       </c>
@@ -5875,7 +5878,7 @@
         <v>-0.34438291192054699</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>330</v>
       </c>
@@ -5901,7 +5904,7 @@
         <v>-0.81913089752197199</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>332</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v>-0.52304607629776001</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>334</v>
       </c>
@@ -5953,7 +5956,7 @@
         <v>-1.7012867927551201</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>336</v>
       </c>
@@ -5979,7 +5982,7 @@
         <v>-6.6172465682029696E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>338</v>
       </c>
@@ -6005,7 +6008,7 @@
         <v>-0.30348703265190102</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>340</v>
       </c>
@@ -6031,7 +6034,7 @@
         <v>0.229155883193016</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>342</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>0.82298815250396695</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>344</v>
       </c>
@@ -6083,7 +6086,7 @@
         <v>2.1918396949768</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>346</v>
       </c>
@@ -6109,7 +6112,7 @@
         <v>-0.45009845495223899</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>348</v>
       </c>
@@ -6135,7 +6138,7 @@
         <v>0.77615427970886197</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>350</v>
       </c>
@@ -6161,7 +6164,7 @@
         <v>-1.5721147060394201</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>352</v>
       </c>
@@ -6187,7 +6190,7 @@
         <v>-1.4878790378570499</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>354</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>-0.67739486694335904</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>356</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>-0.38898456096649098</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>358</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>-1.1465384960174501</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>360</v>
       </c>
@@ -6291,7 +6294,7 @@
         <v>-1.51862609386444</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>362</v>
       </c>
@@ -6317,7 +6320,7 @@
         <v>-0.51068103313446001</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>364</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>-0.44518023729324302</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>366</v>
       </c>
@@ -6369,7 +6372,7 @@
         <v>-0.24027432501316001</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>368</v>
       </c>
@@ -6395,7 +6398,7 @@
         <v>-0.134844794869422</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>370</v>
       </c>
@@ -6421,7 +6424,7 @@
         <v>-0.19156080484390201</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>372</v>
       </c>
@@ -6447,7 +6450,7 @@
         <v>3.05533483624458E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>374</v>
       </c>
@@ -6473,7 +6476,7 @@
         <v>0.88019961118698098</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>376</v>
       </c>
@@ -6499,7 +6502,7 @@
         <v>-0.50690144300460804</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>378</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>-1.0567436218261701</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>380</v>
       </c>
@@ -6551,7 +6554,7 @@
         <v>-0.81410020589828402</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>382</v>
       </c>
@@ -6577,7 +6580,7 @@
         <v>1.2674987316131501</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>384</v>
       </c>
@@ -6603,7 +6606,7 @@
         <v>1.3735320568084699</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>386</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>-1.1688911914825399</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>388</v>
       </c>
@@ -6655,7 +6658,7 @@
         <v>0.67590439319610496</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>390</v>
       </c>
@@ -6681,7 +6684,7 @@
         <v>-1.3538277149200399</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>392</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v>-0.45247077941894498</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>394</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>-9.5952324569225297E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>396</v>
       </c>
@@ -6759,7 +6762,7 @@
         <v>-0.14947183430194799</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>398</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>1.14070391654968</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>400</v>
       </c>
@@ -6811,7 +6814,7 @@
         <v>-1.6637320518493599</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>402</v>
       </c>
@@ -6837,7 +6840,7 @@
         <v>-0.32247868180274902</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>404</v>
       </c>
@@ -6863,7 +6866,7 @@
         <v>0.118391469120979</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>406</v>
       </c>
@@ -6889,7 +6892,7 @@
         <v>-1.3373233079910201</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>408</v>
       </c>
@@ -6915,7 +6918,7 @@
         <v>-0.40186595916748002</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>410</v>
       </c>
@@ -6950,21 +6953,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6990,7 +6993,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -7016,7 +7019,7 @@
         <v>1.25202655792236</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7042,7 +7045,7 @@
         <v>1.23861443996429</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>-1.4966481924057</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -7094,7 +7097,7 @@
         <v>-1.1445406675338701</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -7120,7 +7123,7 @@
         <v>-0.52186667919158902</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -7146,7 +7149,7 @@
         <v>1.1516079902648899</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -7172,7 +7175,7 @@
         <v>-8.3467543125152505E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -7198,7 +7201,7 @@
         <v>-0.349112659692764</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>0.27663460373878401</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>1.8062008619308401</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -7276,7 +7279,7 @@
         <v>1.5962617397308301</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>-0.82860308885574296</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>-1.45063281059265</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -7354,7 +7357,7 @@
         <v>1.5102791786193801</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -7380,7 +7383,7 @@
         <v>-0.383374363183975</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -7406,7 +7409,7 @@
         <v>-0.11239501088857599</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -7432,7 +7435,7 @@
         <v>-0.90502154827117898</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>-0.151533544063568</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -7484,7 +7487,7 @@
         <v>-0.14728666841983701</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -7510,7 +7513,7 @@
         <v>1.1311018466949401</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>-0.571802258491516</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -7562,7 +7565,7 @@
         <v>-0.19227556884288699</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -7588,7 +7591,7 @@
         <v>-0.138192042708396</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -7614,7 +7617,7 @@
         <v>-0.62591004371643</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -7640,7 +7643,7 @@
         <v>-0.41969555616378701</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -7666,7 +7669,7 @@
         <v>1.4113733768463099</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -7692,7 +7695,7 @@
         <v>0.79530769586563099</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -7718,7 +7721,7 @@
         <v>1.6465139389037999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>-1.7279535531997601</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -7770,7 +7773,7 @@
         <v>0.75051081180572499</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -7796,7 +7799,7 @@
         <v>-1.2333954572677599</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -7822,7 +7825,7 @@
         <v>1.8735144138336099</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -7848,7 +7851,7 @@
         <v>2.00971031188964</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -7874,7 +7877,7 @@
         <v>1.01211810111999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -7900,7 +7903,7 @@
         <v>-0.27124416828155501</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -7926,7 +7929,7 @@
         <v>-0.49909627437591497</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -7952,7 +7955,7 @@
         <v>-1.1497484445571799</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -7978,7 +7981,7 @@
         <v>-1.3588067293167101</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>-0.301492929458618</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -8030,7 +8033,7 @@
         <v>-0.81641250848770097</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -8056,7 +8059,7 @@
         <v>0.76821964979171697</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -8082,7 +8085,7 @@
         <v>0.55176079273223799</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -8108,7 +8111,7 @@
         <v>0.16541530191898299</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -8134,7 +8137,7 @@
         <v>0.496343553066253</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -8160,7 +8163,7 @@
         <v>0.63996618986129705</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -8186,7 +8189,7 @@
         <v>0.50373208522796598</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -8212,7 +8215,7 @@
         <v>1.94658386707305</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -8238,7 +8241,7 @@
         <v>-0.71680927276611295</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -8264,7 +8267,7 @@
         <v>0.54573369026184004</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -8290,7 +8293,7 @@
         <v>2.1477954387664702</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -8316,7 +8319,7 @@
         <v>-0.74948996305465598</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -8342,7 +8345,7 @@
         <v>-0.63646501302719105</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -8368,7 +8371,7 @@
         <v>-0.56179720163345304</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -8394,7 +8397,7 @@
         <v>-0.58693414926528897</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -8420,7 +8423,7 @@
         <v>-1.3160228729248</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -8446,7 +8449,7 @@
         <v>0.61350703239440896</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -8472,7 +8475,7 @@
         <v>1.5063180923461901</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -8498,7 +8501,7 @@
         <v>-0.486167162656784</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -8524,7 +8527,7 @@
         <v>2.21243000030517</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -8550,7 +8553,7 @@
         <v>0.38099741935729903</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>128</v>
       </c>
@@ -8576,7 +8579,7 @@
         <v>1.3168927431106501</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>130</v>
       </c>
@@ -8602,7 +8605,7 @@
         <v>0.69302982091903598</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>132</v>
       </c>
@@ -8628,7 +8631,7 @@
         <v>-0.85120493173599199</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -8654,7 +8657,7 @@
         <v>1.82657659053802</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -8680,7 +8683,7 @@
         <v>0.707991063594818</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -8706,7 +8709,7 @@
         <v>-0.114903882145881</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -8732,7 +8735,7 @@
         <v>-1.0417174100875799</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -8758,7 +8761,7 @@
         <v>-0.463039070367813</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -8784,7 +8787,7 @@
         <v>-1.5337235927581701</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -8810,7 +8813,7 @@
         <v>-1.5596842765808101</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>148</v>
       </c>
@@ -8836,7 +8839,7 @@
         <v>-6.6025868058204595E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>150</v>
       </c>
@@ -8862,7 +8865,7 @@
         <v>0.37653726339340199</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -8888,7 +8891,7 @@
         <v>1.17730093002319</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>154</v>
       </c>
@@ -8914,7 +8917,7 @@
         <v>-0.82281255722045799</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -8940,7 +8943,7 @@
         <v>0.95251643657684304</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -8966,7 +8969,7 @@
         <v>-0.226697653532028</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -8992,7 +8995,7 @@
         <v>1.67644095420837</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>162</v>
       </c>
@@ -9018,7 +9021,7 @@
         <v>-0.616485655307769</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>164</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>0.131639063358306</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -9070,7 +9073,7 @@
         <v>-1.2651891708373999</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>168</v>
       </c>
@@ -9096,7 +9099,7 @@
         <v>5.3346969187259598E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>170</v>
       </c>
@@ -9122,7 +9125,7 @@
         <v>-0.25154468417167603</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>172</v>
       </c>
@@ -9148,7 +9151,7 @@
         <v>-0.18629302084445901</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>174</v>
       </c>
@@ -9174,7 +9177,7 @@
         <v>1.54737555980682</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>176</v>
       </c>
@@ -9200,7 +9203,7 @@
         <v>-0.95881646871566695</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>178</v>
       </c>
@@ -9226,7 +9229,7 @@
         <v>-1.39940774440765</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>180</v>
       </c>
@@ -9252,7 +9255,7 @@
         <v>1.84364891052246</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>182</v>
       </c>
@@ -9278,7 +9281,7 @@
         <v>0.78656941652297896</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -9304,7 +9307,7 @@
         <v>0.23561884462833399</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>186</v>
       </c>
@@ -9330,7 +9333,7 @@
         <v>-0.16439051926136</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>188</v>
       </c>
@@ -9356,7 +9359,7 @@
         <v>0.14954210817813801</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>1.42477190494537</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>192</v>
       </c>
@@ -9408,7 +9411,7 @@
         <v>-0.50172621011733998</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>194</v>
       </c>
@@ -9434,7 +9437,7 @@
         <v>-0.85201287269592196</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>196</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>-0.95429718494415205</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>198</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>-1.32557249069213</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>200</v>
       </c>
@@ -9512,7 +9515,7 @@
         <v>0.33641356229782099</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>202</v>
       </c>
@@ -9538,7 +9541,7 @@
         <v>0.45259025692939697</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>204</v>
       </c>
@@ -9564,7 +9567,7 @@
         <v>0.60410946607589699</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>206</v>
       </c>
@@ -9590,7 +9593,7 @@
         <v>-0.28942826390266402</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>208</v>
       </c>
@@ -9616,7 +9619,7 @@
         <v>-0.98267388343811002</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>210</v>
       </c>
@@ -9642,7 +9645,7 @@
         <v>-1.1089171171188299</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>212</v>
       </c>
@@ -9668,7 +9671,7 @@
         <v>-0.85099583864212003</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>214</v>
       </c>
@@ -9694,7 +9697,7 @@
         <v>-1.55271124839782</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>216</v>
       </c>
@@ -9720,7 +9723,7 @@
         <v>0.53620278835296598</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>218</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>2.0077097415924001</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>220</v>
       </c>
@@ -9772,7 +9775,7 @@
         <v>-0.335543483495712</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>222</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>-0.10330809652805301</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>224</v>
       </c>
@@ -9824,7 +9827,7 @@
         <v>0.497895687818527</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>226</v>
       </c>
@@ -9850,7 +9853,7 @@
         <v>2.0877549648284899</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>228</v>
       </c>
@@ -9876,7 +9879,7 @@
         <v>0.32858711481094299</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>230</v>
       </c>
@@ -9902,7 +9905,7 @@
         <v>-0.51903927326202304</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>232</v>
       </c>
@@ -9928,7 +9931,7 @@
         <v>0.71568179130554099</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>234</v>
       </c>
@@ -9954,7 +9957,7 @@
         <v>-0.21640342473983701</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>236</v>
       </c>
@@ -9980,7 +9983,7 @@
         <v>-0.72675019502639704</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>238</v>
       </c>
@@ -10006,7 +10009,7 @@
         <v>-1.00072681903839</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>240</v>
       </c>
@@ -10032,7 +10035,7 @@
         <v>-0.89300113916396995</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -10058,7 +10061,7 @@
         <v>-0.86285173892974798</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>244</v>
       </c>
@@ -10084,7 +10087,7 @@
         <v>-7.4099443852901403E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>246</v>
       </c>
@@ -10110,7 +10113,7 @@
         <v>-0.36481609940528797</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>248</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v>-0.69533103704452504</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>250</v>
       </c>
@@ -10162,7 +10165,7 @@
         <v>0.57990181446075395</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>252</v>
       </c>
@@ -10188,7 +10191,7 @@
         <v>-0.58829396963119496</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>254</v>
       </c>
@@ -10214,7 +10217,7 @@
         <v>-0.427789747714996</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>256</v>
       </c>
@@ -10240,7 +10243,7 @@
         <v>2.2798713296651799E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>258</v>
       </c>
@@ -10266,7 +10269,7 @@
         <v>-0.78137969970703103</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>260</v>
       </c>
@@ -10292,7 +10295,7 @@
         <v>-0.807253837585449</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>262</v>
       </c>
@@ -10318,7 +10321,7 @@
         <v>0.26963451504707298</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>264</v>
       </c>
@@ -10344,7 +10347,7 @@
         <v>-0.74338918924331598</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>266</v>
       </c>
@@ -10370,7 +10373,7 @@
         <v>0.31397646665573098</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>268</v>
       </c>
@@ -10396,7 +10399,7 @@
         <v>0.33995985984802202</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>270</v>
       </c>
@@ -10422,7 +10425,7 @@
         <v>-0.579814553260803</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>272</v>
       </c>
@@ -10448,7 +10451,7 @@
         <v>-1.0448904037475499</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>274</v>
       </c>
@@ -10474,7 +10477,7 @@
         <v>-1.06336033344268</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>276</v>
       </c>
@@ -10500,7 +10503,7 @@
         <v>2.0090262889861998</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>278</v>
       </c>
@@ -10526,7 +10529,7 @@
         <v>2.0899066925048801</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>280</v>
       </c>
@@ -10552,7 +10555,7 @@
         <v>-0.673650503158569</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>282</v>
       </c>
@@ -10578,7 +10581,7 @@
         <v>-0.55390930175781194</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>284</v>
       </c>
@@ -10604,7 +10607,7 @@
         <v>2.1746959686279199</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>286</v>
       </c>
@@ -10630,7 +10633,7 @@
         <v>0.24608282744884399</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>288</v>
       </c>
@@ -10656,7 +10659,7 @@
         <v>-0.79073375463485696</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>290</v>
       </c>
@@ -10682,7 +10685,7 @@
         <v>-0.56702697277069003</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>292</v>
       </c>
@@ -10708,7 +10711,7 @@
         <v>-0.55390930175781194</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>294</v>
       </c>
@@ -10734,7 +10737,7 @@
         <v>-0.54010522365570002</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>296</v>
       </c>
@@ -10760,7 +10763,7 @@
         <v>-0.54481542110443104</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>298</v>
       </c>
@@ -10786,7 +10789,7 @@
         <v>-0.87600952386856001</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>300</v>
       </c>
@@ -10812,7 +10815,7 @@
         <v>0.64142185449600198</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>302</v>
       </c>
@@ -10838,7 +10841,7 @@
         <v>4.0170639753341598E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>304</v>
       </c>
@@ -10864,7 +10867,7 @@
         <v>-1.56625616550445</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>306</v>
       </c>
@@ -10890,7 +10893,7 @@
         <v>0.84983038902282704</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>308</v>
       </c>
@@ -10916,7 +10919,7 @@
         <v>-0.84746462106704701</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>310</v>
       </c>
@@ -10942,7 +10945,7 @@
         <v>0.72489446401596003</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>312</v>
       </c>
@@ -10968,7 +10971,7 @@
         <v>-0.12165043503046</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>314</v>
       </c>
@@ -10994,7 +10997,7 @@
         <v>-0.84511333703994695</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>316</v>
       </c>
@@ -11020,7 +11023,7 @@
         <v>0.57825767993927002</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>318</v>
       </c>
@@ -11046,7 +11049,7 @@
         <v>0.64238590002059903</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>320</v>
       </c>
@@ -11072,7 +11075,7 @@
         <v>0.35969617962837203</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>322</v>
       </c>
@@ -11098,7 +11101,7 @@
         <v>-1.4269329309463501</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>324</v>
       </c>
@@ -11124,7 +11127,7 @@
         <v>-2.47014313936233E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>326</v>
       </c>
@@ -11150,7 +11153,7 @@
         <v>2.1745240688323899</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>328</v>
       </c>
@@ -11176,7 +11179,7 @@
         <v>-4.9461983144283199E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>330</v>
       </c>
@@ -11202,7 +11205,7 @@
         <v>-0.49216982722282399</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>332</v>
       </c>
@@ -11228,7 +11231,7 @@
         <v>-0.59110766649246205</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>334</v>
       </c>
@@ -11254,7 +11257,7 @@
         <v>-1.8000848293304399</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>336</v>
       </c>
@@ -11280,7 +11283,7 @@
         <v>0.183871164917945</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>338</v>
       </c>
@@ -11306,7 +11309,7 @@
         <v>-0.21148443222045801</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>340</v>
       </c>
@@ -11332,7 +11335,7 @@
         <v>0.36291983723640397</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>342</v>
       </c>
@@ -11358,7 +11361,7 @@
         <v>0.87021750211715598</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>344</v>
       </c>
@@ -11384,7 +11387,7 @@
         <v>2.1395781040191602</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>346</v>
       </c>
@@ -11410,7 +11413,7 @@
         <v>-0.21787239611148801</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>348</v>
       </c>
@@ -11436,7 +11439,7 @@
         <v>0.70268625020980802</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>350</v>
       </c>
@@ -11462,7 +11465,7 @@
         <v>-1.6268121004104601</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>352</v>
       </c>
@@ -11488,7 +11491,7 @@
         <v>-1.4103934764862001</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>354</v>
       </c>
@@ -11514,7 +11517,7 @@
         <v>-0.72753739356994596</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>356</v>
       </c>
@@ -11540,7 +11543,7 @@
         <v>-0.39880406856536799</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>358</v>
       </c>
@@ -11566,7 +11569,7 @@
         <v>-1.4151018857955899</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>360</v>
       </c>
@@ -11592,7 +11595,7 @@
         <v>-1.3577418327331501</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>362</v>
       </c>
@@ -11618,7 +11621,7 @@
         <v>-0.47358506917953402</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>364</v>
       </c>
@@ -11644,7 +11647,7 @@
         <v>-7.0895254611968897E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>366</v>
       </c>
@@ -11670,7 +11673,7 @@
         <v>-0.31726703047752303</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>368</v>
       </c>
@@ -11696,7 +11699,7 @@
         <v>-5.3486328572034801E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>370</v>
       </c>
@@ -11722,7 +11725,7 @@
         <v>-0.33538377285003601</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>372</v>
       </c>
@@ -11748,7 +11751,7 @@
         <v>2.8579855337738901E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>374</v>
       </c>
@@ -11774,7 +11777,7 @@
         <v>1.0276575088500901</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>376</v>
       </c>
@@ -11800,7 +11803,7 @@
         <v>-0.44798526167869501</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>378</v>
       </c>
@@ -11826,7 +11829,7 @@
         <v>-1.0373569726943901</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>380</v>
       </c>
@@ -11852,7 +11855,7 @@
         <v>-0.87369084358215299</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>382</v>
       </c>
@@ -11878,7 +11881,7 @@
         <v>1.2655344009399401</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>384</v>
       </c>
@@ -11904,7 +11907,7 @@
         <v>1.3232178688049301</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>386</v>
       </c>
@@ -11930,7 +11933,7 @@
         <v>-1.06871378421783</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>388</v>
       </c>
@@ -11956,7 +11959,7 @@
         <v>0.76882547140121404</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>390</v>
       </c>
@@ -11982,7 +11985,7 @@
         <v>-1.46751201152801</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>392</v>
       </c>
@@ -12008,7 +12011,7 @@
         <v>-0.48535665869712802</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>394</v>
       </c>
@@ -12034,7 +12037,7 @@
         <v>-0.16294240951538</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>396</v>
       </c>
@@ -12060,7 +12063,7 @@
         <v>-0.19542033970355899</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>398</v>
       </c>
@@ -12086,7 +12089,7 @@
         <v>1.1023875474929801</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>400</v>
       </c>
@@ -12112,7 +12115,7 @@
         <v>-1.6379712820053101</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>402</v>
       </c>
@@ -12138,7 +12141,7 @@
         <v>-0.37021481990814198</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>404</v>
       </c>
@@ -12164,7 +12167,7 @@
         <v>-2.15689744800329E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>406</v>
       </c>
@@ -12190,7 +12193,7 @@
         <v>-1.5033982992172199</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>408</v>
       </c>
@@ -12216,7 +12219,7 @@
         <v>-0.65613645315170199</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>410</v>
       </c>
